--- a/Code/Results/Cases/Case_9_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020523900659058</v>
+        <v>1.019264194453763</v>
       </c>
       <c r="D2">
-        <v>1.035654220290794</v>
+        <v>1.033716881886438</v>
       </c>
       <c r="E2">
-        <v>1.031699902951206</v>
+        <v>1.030717221494624</v>
       </c>
       <c r="F2">
-        <v>1.037274581489865</v>
+        <v>1.036474303730271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050719883335695</v>
+        <v>1.049865636119731</v>
       </c>
       <c r="J2">
-        <v>1.042107607340913</v>
+        <v>1.040883596996088</v>
       </c>
       <c r="K2">
-        <v>1.046638215314153</v>
+        <v>1.044725651952837</v>
       </c>
       <c r="L2">
-        <v>1.042734590157135</v>
+        <v>1.041764581621717</v>
       </c>
       <c r="M2">
-        <v>1.048237943792143</v>
+        <v>1.047447846225262</v>
       </c>
       <c r="N2">
-        <v>1.017467055349521</v>
+        <v>1.017725512438933</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046749460685488</v>
+        <v>1.046124156530856</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044047528833433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042703912768037</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023802895679661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024477678832934</v>
+        <v>1.023011440372936</v>
       </c>
       <c r="D3">
-        <v>1.038355112288534</v>
+        <v>1.036166039245625</v>
       </c>
       <c r="E3">
-        <v>1.034845739024774</v>
+        <v>1.033691143013048</v>
       </c>
       <c r="F3">
-        <v>1.040339956490784</v>
+        <v>1.03940268918484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051741389567702</v>
+        <v>1.05075471108063</v>
       </c>
       <c r="J3">
-        <v>1.04432259256213</v>
+        <v>1.04289385892556</v>
       </c>
       <c r="K3">
-        <v>1.048519670835632</v>
+        <v>1.046356171884578</v>
       </c>
       <c r="L3">
-        <v>1.045051360959504</v>
+        <v>1.043910350412024</v>
       </c>
       <c r="M3">
-        <v>1.050481441863666</v>
+        <v>1.049555056412796</v>
       </c>
       <c r="N3">
-        <v>1.018246159486562</v>
+        <v>1.01828355857156</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048525021632695</v>
+        <v>1.04779185734305</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045375217851861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04385389422228</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024148813390728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026990016086413</v>
+        <v>1.025394128064136</v>
       </c>
       <c r="D4">
-        <v>1.040074955490967</v>
+        <v>1.037727010938516</v>
       </c>
       <c r="E4">
-        <v>1.036850483993932</v>
+        <v>1.035587934476706</v>
       </c>
       <c r="F4">
-        <v>1.042295954403674</v>
+        <v>1.041272719413508</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052382499707292</v>
+        <v>1.05131225546701</v>
       </c>
       <c r="J4">
-        <v>1.045727635849983</v>
+        <v>1.044169824077271</v>
       </c>
       <c r="K4">
-        <v>1.049712622961348</v>
+        <v>1.047390467058662</v>
       </c>
       <c r="L4">
-        <v>1.046523604244368</v>
+        <v>1.045275010291707</v>
       </c>
       <c r="M4">
-        <v>1.051909358786676</v>
+        <v>1.050897286242587</v>
       </c>
       <c r="N4">
-        <v>1.018740109117304</v>
+        <v>1.018637709037431</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04965510887866</v>
+        <v>1.048854130892851</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046219613239494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044586190339451</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02436586537375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02803977741444</v>
+        <v>1.026389917943584</v>
       </c>
       <c r="D5">
-        <v>1.040796827926151</v>
+        <v>1.038382672028237</v>
       </c>
       <c r="E5">
-        <v>1.037689823278681</v>
+        <v>1.036382308676894</v>
       </c>
       <c r="F5">
-        <v>1.043114789593566</v>
+        <v>1.042055762609892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052650354420642</v>
+        <v>1.051545227603125</v>
       </c>
       <c r="J5">
-        <v>1.046315892751019</v>
+        <v>1.044704228417289</v>
       </c>
       <c r="K5">
-        <v>1.050213697198912</v>
+        <v>1.047825356464993</v>
       </c>
       <c r="L5">
-        <v>1.047139943698769</v>
+        <v>1.045846495166846</v>
       </c>
       <c r="M5">
-        <v>1.052507009936594</v>
+        <v>1.051459227867776</v>
       </c>
       <c r="N5">
-        <v>1.018947497744429</v>
+        <v>1.018786494302762</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05012810363351</v>
+        <v>1.049298864801958</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046581016956251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044901511219347</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024457196492999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028220605658755</v>
+        <v>1.026561273646882</v>
       </c>
       <c r="D6">
-        <v>1.040924152998008</v>
+        <v>1.038498507893475</v>
       </c>
       <c r="E6">
-        <v>1.037834862465612</v>
+        <v>1.036519429689579</v>
       </c>
       <c r="F6">
-        <v>1.043255470155071</v>
+        <v>1.042190145467643</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052698717094002</v>
+        <v>1.051587464193612</v>
       </c>
       <c r="J6">
-        <v>1.046419349521978</v>
+        <v>1.044798235498501</v>
       </c>
       <c r="K6">
-        <v>1.050303924413135</v>
+        <v>1.047904099266268</v>
       </c>
       <c r="L6">
-        <v>1.047247543813091</v>
+        <v>1.045946197174713</v>
       </c>
       <c r="M6">
-        <v>1.052610564095921</v>
+        <v>1.051556499332902</v>
       </c>
       <c r="N6">
-        <v>1.01898476013893</v>
+        <v>1.018813242826013</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050210058727203</v>
+        <v>1.049375847715877</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046653481421676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044966728456775</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024474482745962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02701807364511</v>
+        <v>1.025429298861836</v>
       </c>
       <c r="D7">
-        <v>1.040102094906386</v>
+        <v>1.037759104552</v>
       </c>
       <c r="E7">
-        <v>1.036873945946751</v>
+        <v>1.03561751904717</v>
       </c>
       <c r="F7">
-        <v>1.04231654217612</v>
+        <v>1.041298146177445</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052395964568059</v>
+        <v>1.051329212470351</v>
       </c>
       <c r="J7">
-        <v>1.045749177898374</v>
+        <v>1.044198292743769</v>
       </c>
       <c r="K7">
-        <v>1.049736617824772</v>
+        <v>1.04741935134351</v>
       </c>
       <c r="L7">
-        <v>1.04654394814695</v>
+        <v>1.045301403639012</v>
       </c>
       <c r="M7">
-        <v>1.051926882983348</v>
+        <v>1.050919592347421</v>
       </c>
       <c r="N7">
-        <v>1.018749868262065</v>
+        <v>1.018673472083795</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049668977931973</v>
+        <v>1.048871784477502</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046256517307524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044628559746286</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024374964297464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021887502118927</v>
+        <v>1.02058360361472</v>
       </c>
       <c r="D8">
-        <v>1.036594703193724</v>
+        <v>1.034591650049255</v>
       </c>
       <c r="E8">
-        <v>1.032785045227589</v>
+        <v>1.031766431931197</v>
       </c>
       <c r="F8">
-        <v>1.038328536117894</v>
+        <v>1.037499449193868</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051081702992093</v>
+        <v>1.05019602467183</v>
       </c>
       <c r="J8">
-        <v>1.042879300145123</v>
+        <v>1.041611113762779</v>
       </c>
       <c r="K8">
-        <v>1.047300782204575</v>
+        <v>1.045322587272479</v>
       </c>
       <c r="L8">
-        <v>1.043538505779342</v>
+        <v>1.042532635103942</v>
       </c>
       <c r="M8">
-        <v>1.049013194361702</v>
+        <v>1.048194339334542</v>
       </c>
       <c r="N8">
-        <v>1.017741401095487</v>
+        <v>1.018009570783587</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047363014017465</v>
+        <v>1.046714950975872</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044538742783645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043150996135649</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023935559871145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.012455793126793</v>
+        <v>1.0116596074482</v>
       </c>
       <c r="D9">
-        <v>1.030164919309731</v>
+        <v>1.028772952132201</v>
       </c>
       <c r="E9">
-        <v>1.025314083342165</v>
+        <v>1.024718044859836</v>
       </c>
       <c r="F9">
-        <v>1.031065784811355</v>
+        <v>1.030573738830231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048593625653626</v>
+        <v>1.048030273587567</v>
       </c>
       <c r="J9">
-        <v>1.037576244582916</v>
+        <v>1.036807248290941</v>
       </c>
       <c r="K9">
-        <v>1.042786840999818</v>
+        <v>1.041415840874223</v>
       </c>
       <c r="L9">
-        <v>1.03800938686516</v>
+        <v>1.037422426161631</v>
       </c>
       <c r="M9">
-        <v>1.043674175266885</v>
+        <v>1.043189516212719</v>
       </c>
       <c r="N9">
-        <v>1.015872329298469</v>
+        <v>1.016684006316048</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043137565967066</v>
+        <v>1.042753992116874</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041343972521897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040385270138807</v>
+      </c>
+      <c r="S9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.023091623646614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005992763574069</v>
+        <v>1.005591328912179</v>
       </c>
       <c r="D10">
-        <v>1.025794907872629</v>
+        <v>1.024856258650497</v>
       </c>
       <c r="E10">
-        <v>1.02027238521039</v>
+        <v>1.020005320305957</v>
       </c>
       <c r="F10">
-        <v>1.026225952922929</v>
+        <v>1.025996561626475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046874524985823</v>
+        <v>1.046554273595571</v>
       </c>
       <c r="J10">
-        <v>1.033970616456145</v>
+        <v>1.03358485077436</v>
       </c>
       <c r="K10">
-        <v>1.039713539066589</v>
+        <v>1.03879077424988</v>
       </c>
       <c r="L10">
-        <v>1.034285014576419</v>
+        <v>1.034022528696901</v>
       </c>
       <c r="M10">
-        <v>1.040137302264929</v>
+        <v>1.039911785203622</v>
       </c>
       <c r="N10">
-        <v>1.014611065372456</v>
+        <v>1.015915241147215</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040389692277675</v>
+        <v>1.040211221672215</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039187693481075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038547604040428</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022524131120659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003887779043098</v>
+        <v>1.003643877898806</v>
       </c>
       <c r="D11">
-        <v>1.024472465998828</v>
+        <v>1.023698003591147</v>
       </c>
       <c r="E11">
-        <v>1.018989047940567</v>
+        <v>1.018850152176434</v>
       </c>
       <c r="F11">
-        <v>1.025382631801734</v>
+        <v>1.025256594297833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046503232373377</v>
+        <v>1.0462702294393</v>
       </c>
       <c r="J11">
-        <v>1.03309971150535</v>
+        <v>1.03286584907143</v>
       </c>
       <c r="K11">
-        <v>1.038947167816688</v>
+        <v>1.038186433001716</v>
       </c>
       <c r="L11">
-        <v>1.033561528663524</v>
+        <v>1.033425127411328</v>
       </c>
       <c r="M11">
-        <v>1.039841235014109</v>
+        <v>1.039717424594005</v>
       </c>
       <c r="N11">
-        <v>1.014392161299126</v>
+        <v>1.016008314134327</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04059053613059</v>
+        <v>1.040492603589416</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038678520369427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038156210752499</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022454206971247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003381781664161</v>
+        <v>1.003169002988935</v>
       </c>
       <c r="D12">
-        <v>1.024199310894024</v>
+        <v>1.023455510552584</v>
       </c>
       <c r="E12">
-        <v>1.018857468524536</v>
+        <v>1.018740703424866</v>
       </c>
       <c r="F12">
-        <v>1.025538325535203</v>
+        <v>1.02543103019273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046510859295986</v>
+        <v>1.046290789634041</v>
       </c>
       <c r="J12">
-        <v>1.033043704815508</v>
+        <v>1.032839847833643</v>
       </c>
       <c r="K12">
-        <v>1.038877125578747</v>
+        <v>1.038146726259114</v>
       </c>
       <c r="L12">
-        <v>1.033632092340175</v>
+        <v>1.033517458110162</v>
       </c>
       <c r="M12">
-        <v>1.040192078897164</v>
+        <v>1.04008670858156</v>
       </c>
       <c r="N12">
-        <v>1.014440417943628</v>
+        <v>1.016149756931506</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041193623003211</v>
+        <v>1.041110304435612</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038628998703444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038128137609037</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022489130333074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004089885633421</v>
+        <v>1.003797820794491</v>
       </c>
       <c r="D13">
-        <v>1.024735233653175</v>
+        <v>1.023909292384349</v>
       </c>
       <c r="E13">
-        <v>1.019619733493207</v>
+        <v>1.019432349124366</v>
       </c>
       <c r="F13">
-        <v>1.026497316309753</v>
+        <v>1.026334971114292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046826092479849</v>
+        <v>1.04655477300988</v>
       </c>
       <c r="J13">
-        <v>1.033630165252013</v>
+        <v>1.033350278670092</v>
       </c>
       <c r="K13">
-        <v>1.039360911703767</v>
+        <v>1.038549783109406</v>
       </c>
       <c r="L13">
-        <v>1.034337656520205</v>
+        <v>1.034153674016069</v>
       </c>
       <c r="M13">
-        <v>1.041091496087867</v>
+        <v>1.040932047036337</v>
       </c>
       <c r="N13">
-        <v>1.014706964773262</v>
+        <v>1.016307123483824</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042180753065738</v>
+        <v>1.042054704799552</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038968568310386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038410381337291</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022611962533609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00513395573202</v>
+        <v>1.004737501115096</v>
       </c>
       <c r="D14">
-        <v>1.025477230518573</v>
+        <v>1.024543780733155</v>
       </c>
       <c r="E14">
-        <v>1.02055496892886</v>
+        <v>1.020277466446451</v>
       </c>
       <c r="F14">
-        <v>1.027528893669524</v>
+        <v>1.027295600796222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I14">
-        <v>1.047185634903806</v>
+        <v>1.046850292122701</v>
       </c>
       <c r="J14">
-        <v>1.034330056108658</v>
+        <v>1.033949888436081</v>
       </c>
       <c r="K14">
-        <v>1.039950523337315</v>
+        <v>1.039033602039587</v>
       </c>
       <c r="L14">
-        <v>1.03511586212747</v>
+        <v>1.034843330988351</v>
       </c>
       <c r="M14">
-        <v>1.041965994728642</v>
+        <v>1.041736807746743</v>
       </c>
       <c r="N14">
-        <v>1.014991986196848</v>
+        <v>1.016425908566521</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043044928401166</v>
+        <v>1.042863774966281</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039386855991352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038754003028818</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022738429671597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005660469255176</v>
+        <v>1.005215017677922</v>
       </c>
       <c r="D15">
-        <v>1.025842689249928</v>
+        <v>1.024858733054107</v>
       </c>
       <c r="E15">
-        <v>1.020989544142076</v>
+        <v>1.020670470974953</v>
       </c>
       <c r="F15">
-        <v>1.02797449239837</v>
+        <v>1.027708283960004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04734562586972</v>
+        <v>1.046981032126356</v>
       </c>
       <c r="J15">
-        <v>1.034649971452197</v>
+        <v>1.034222657406267</v>
       </c>
       <c r="K15">
-        <v>1.040223853641607</v>
+        <v>1.039257186630963</v>
       </c>
       <c r="L15">
-        <v>1.035456402952041</v>
+        <v>1.035143000872361</v>
       </c>
       <c r="M15">
-        <v>1.042318345712193</v>
+        <v>1.04205678553217</v>
       </c>
       <c r="N15">
-        <v>1.015113063578443</v>
+        <v>1.016464613210009</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043360875252457</v>
+        <v>1.043154138877692</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03958594549922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038918490044075</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022791565367035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008257297528092</v>
+        <v>1.007598450190238</v>
       </c>
       <c r="D16">
-        <v>1.027587484515119</v>
+        <v>1.026379935050567</v>
       </c>
       <c r="E16">
-        <v>1.022978386388032</v>
+        <v>1.022481845309456</v>
       </c>
       <c r="F16">
-        <v>1.029869499602788</v>
+        <v>1.02946181300121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048024355422228</v>
+        <v>1.047535447288544</v>
       </c>
       <c r="J16">
-        <v>1.036071340608848</v>
+        <v>1.035437974308598</v>
       </c>
       <c r="K16">
-        <v>1.041440615122486</v>
+        <v>1.040253356174844</v>
       </c>
       <c r="L16">
-        <v>1.036909296338683</v>
+        <v>1.036421188496945</v>
       </c>
       <c r="M16">
-        <v>1.043684452779473</v>
+        <v>1.043283570652721</v>
       </c>
       <c r="N16">
-        <v>1.015598582774915</v>
+        <v>1.016581839145541</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044402030238463</v>
+        <v>1.044085165143504</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040449376229575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039626254176543</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022998370253362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009705544480562</v>
+        <v>1.008947955360678</v>
       </c>
       <c r="D17">
-        <v>1.028540508191976</v>
+        <v>1.027225521882622</v>
       </c>
       <c r="E17">
-        <v>1.024016863498786</v>
+        <v>1.023439744536336</v>
       </c>
       <c r="F17">
-        <v>1.030779649455698</v>
+        <v>1.030307252503067</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048355610548681</v>
+        <v>1.047809785940189</v>
       </c>
       <c r="J17">
-        <v>1.036795795168621</v>
+        <v>1.036066567026378</v>
       </c>
       <c r="K17">
-        <v>1.042065963918414</v>
+        <v>1.040772454334592</v>
       </c>
       <c r="L17">
-        <v>1.037616498505783</v>
+        <v>1.037048903905078</v>
       </c>
       <c r="M17">
-        <v>1.04426869682184</v>
+        <v>1.043803964111409</v>
       </c>
       <c r="N17">
-        <v>1.015821926182039</v>
+        <v>1.016639559605004</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044735167741786</v>
+        <v>1.044367797450288</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040894087455961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039996090732691</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023092662351669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010278100087643</v>
+        <v>1.00949969464092</v>
       </c>
       <c r="D18">
-        <v>1.028875881287532</v>
+        <v>1.027535123353976</v>
       </c>
       <c r="E18">
-        <v>1.024293888803197</v>
+        <v>1.023702190322974</v>
       </c>
       <c r="F18">
-        <v>1.030863187171505</v>
+        <v>1.030378251712625</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048403515910921</v>
+        <v>1.047847806405925</v>
       </c>
       <c r="J18">
-        <v>1.036958358642524</v>
+        <v>1.036208557237953</v>
       </c>
       <c r="K18">
-        <v>1.042214123580598</v>
+        <v>1.040894908577205</v>
       </c>
       <c r="L18">
-        <v>1.037706052465144</v>
+        <v>1.03712396183249</v>
       </c>
       <c r="M18">
-        <v>1.044169630121182</v>
+        <v>1.043692439722883</v>
       </c>
       <c r="N18">
-        <v>1.015827057438611</v>
+        <v>1.016602307798466</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044419923420215</v>
+        <v>1.044042627201863</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04098727585852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040069967079207</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023087617993575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010081169188741</v>
+        <v>1.00934150357635</v>
       </c>
       <c r="D19">
-        <v>1.028681940214502</v>
+        <v>1.027380411936473</v>
       </c>
       <c r="E19">
-        <v>1.023896658855965</v>
+        <v>1.023340595008769</v>
       </c>
       <c r="F19">
-        <v>1.030202984394369</v>
+        <v>1.029745247068248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048214908383695</v>
+        <v>1.047685732650296</v>
       </c>
       <c r="J19">
-        <v>1.036636224306623</v>
+        <v>1.035923593994037</v>
       </c>
       <c r="K19">
-        <v>1.041961303453057</v>
+        <v>1.040680585448433</v>
       </c>
       <c r="L19">
-        <v>1.037252868606811</v>
+        <v>1.036705794386442</v>
       </c>
       <c r="M19">
-        <v>1.043458112871861</v>
+        <v>1.043007659013571</v>
       </c>
       <c r="N19">
-        <v>1.015650853163</v>
+        <v>1.016469202450184</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043532923205577</v>
+        <v>1.043176650940219</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040814882462847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039925419490273</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023001673537737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007707930957435</v>
+        <v>1.007173122085006</v>
       </c>
       <c r="D20">
-        <v>1.026973089406869</v>
+        <v>1.025892195697253</v>
       </c>
       <c r="E20">
-        <v>1.021613478837265</v>
+        <v>1.021233987933095</v>
       </c>
       <c r="F20">
-        <v>1.027509164396084</v>
+        <v>1.027190282145153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047350715026513</v>
+        <v>1.046950426536317</v>
       </c>
       <c r="J20">
-        <v>1.034944924556939</v>
+        <v>1.034430305056558</v>
       </c>
       <c r="K20">
-        <v>1.040557670460176</v>
+        <v>1.039494544715514</v>
       </c>
       <c r="L20">
-        <v>1.035286637552292</v>
+        <v>1.034913463849111</v>
       </c>
       <c r="M20">
-        <v>1.041084951162673</v>
+        <v>1.040771298738793</v>
       </c>
       <c r="N20">
-        <v>1.014958965460173</v>
+        <v>1.016052553628419</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041129130040281</v>
+        <v>1.040880907587786</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039826374534252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039091150008138</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022680248235281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002707437108038</v>
+        <v>1.002615865461135</v>
       </c>
       <c r="D21">
-        <v>1.023579884512789</v>
+        <v>1.02295849855702</v>
       </c>
       <c r="E21">
-        <v>1.017657735641351</v>
+        <v>1.017653950101681</v>
       </c>
       <c r="F21">
-        <v>1.023641205030325</v>
+        <v>1.023620875115829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045968307956159</v>
+        <v>1.045831181331127</v>
       </c>
       <c r="J21">
-        <v>1.032092396009418</v>
+        <v>1.032004624090442</v>
       </c>
       <c r="K21">
-        <v>1.03812788801632</v>
+        <v>1.037517589566518</v>
       </c>
       <c r="L21">
-        <v>1.032312124940972</v>
+        <v>1.032308407919908</v>
       </c>
       <c r="M21">
-        <v>1.038188115327701</v>
+        <v>1.038168147830764</v>
       </c>
       <c r="N21">
-        <v>1.013944712531305</v>
+        <v>1.015801607488318</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038795720146162</v>
+        <v>1.038779917173462</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038111662471475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037696933107684</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022251635390661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.99952884128693</v>
+        <v>0.9997200140624019</v>
       </c>
       <c r="D22">
-        <v>1.021426157472775</v>
+        <v>1.021097711885355</v>
       </c>
       <c r="E22">
-        <v>1.015171382450248</v>
+        <v>1.015407750722094</v>
       </c>
       <c r="F22">
-        <v>1.021239829182264</v>
+        <v>1.021410335958999</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045086785603045</v>
+        <v>1.04511780991039</v>
       </c>
       <c r="J22">
-        <v>1.030289727786569</v>
+        <v>1.030472500777558</v>
       </c>
       <c r="K22">
-        <v>1.036584781400013</v>
+        <v>1.036262493481102</v>
       </c>
       <c r="L22">
-        <v>1.030448165794777</v>
+        <v>1.03068003419973</v>
       </c>
       <c r="M22">
-        <v>1.036401945740895</v>
+        <v>1.036569256388028</v>
       </c>
       <c r="N22">
-        <v>1.013305573892871</v>
+        <v>1.01564006778993</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037382081927285</v>
+        <v>1.037514497650389</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037007183689273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036794791228293</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021978958869725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001206356439513</v>
+        <v>1.001233218944496</v>
       </c>
       <c r="D23">
-        <v>1.022555154303446</v>
+        <v>1.022059977882842</v>
       </c>
       <c r="E23">
-        <v>1.016481383663602</v>
+        <v>1.01657770670662</v>
       </c>
       <c r="F23">
-        <v>1.022506969605454</v>
+        <v>1.022566304675647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04554695950671</v>
+        <v>1.045481025336999</v>
       </c>
       <c r="J23">
-        <v>1.031235821624744</v>
+        <v>1.031261538813836</v>
       </c>
       <c r="K23">
-        <v>1.037389868751967</v>
+        <v>1.036903737803559</v>
       </c>
       <c r="L23">
-        <v>1.031427842776709</v>
+        <v>1.03152238008937</v>
       </c>
       <c r="M23">
-        <v>1.037342563751193</v>
+        <v>1.037400815569701</v>
       </c>
       <c r="N23">
-        <v>1.013638569494087</v>
+        <v>1.015676650681744</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038126520865908</v>
+        <v>1.038172623425565</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037566813785828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03723763409177</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022114609752098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007696827348876</v>
+        <v>1.007166394876309</v>
       </c>
       <c r="D24">
-        <v>1.026946200300363</v>
+        <v>1.025869347051071</v>
       </c>
       <c r="E24">
-        <v>1.021568855782979</v>
+        <v>1.021193568720027</v>
       </c>
       <c r="F24">
-        <v>1.027430681153271</v>
+        <v>1.027114987237429</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047320808506149</v>
+        <v>1.046923682228336</v>
       </c>
       <c r="J24">
-        <v>1.034901779887412</v>
+        <v>1.03439134400734</v>
       </c>
       <c r="K24">
-        <v>1.040516077057102</v>
+        <v>1.039456903806657</v>
       </c>
       <c r="L24">
-        <v>1.035227497485477</v>
+        <v>1.03485845030812</v>
       </c>
       <c r="M24">
-        <v>1.040992619143316</v>
+        <v>1.040682097136362</v>
       </c>
       <c r="N24">
-        <v>1.014932627109712</v>
+        <v>1.016030057375191</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041015298714616</v>
+        <v>1.040769541499706</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0397697058125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03903459900744</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022663822657796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014963033690719</v>
+        <v>1.014017820082535</v>
       </c>
       <c r="D25">
-        <v>1.031882588957512</v>
+        <v>1.030317673297917</v>
       </c>
       <c r="E25">
-        <v>1.027296275985486</v>
+        <v>1.026575714146427</v>
       </c>
       <c r="F25">
-        <v>1.032986619924754</v>
+        <v>1.032395302916256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049272036539736</v>
+        <v>1.048615684924193</v>
       </c>
       <c r="J25">
-        <v>1.038997115991586</v>
+        <v>1.038082465742327</v>
       </c>
       <c r="K25">
-        <v>1.044005338161257</v>
+        <v>1.042462894904887</v>
       </c>
       <c r="L25">
-        <v>1.039485130812579</v>
+        <v>1.038775022990846</v>
       </c>
       <c r="M25">
-        <v>1.045093566938628</v>
+        <v>1.044510708233942</v>
       </c>
       <c r="N25">
-        <v>1.016377157236603</v>
+        <v>1.017007626480861</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044260914351069</v>
+        <v>1.043799623010655</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04223391706495</v>
+        <v>1.041156805208633</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023322184570714</v>
       </c>
     </row>
   </sheetData>
